--- a/Kazakhstanskaya Coal Mine, Kazakhstan, M1439.xlsx
+++ b/Kazakhstanskaya Coal Mine, Kazakhstan, M1439.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Kazakhstanskaya Coal Mine, Kazakhstan, M1439, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Kazakhstanskaya Coal Mine, Kazakhstan, M1439, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">

--- a/Kazakhstanskaya Coal Mine, Kazakhstan, M1439.xlsx
+++ b/Kazakhstanskaya Coal Mine, Kazakhstan, M1439.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Kazakhstanskaya Coal Mine, Kazakhstan, M1439, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Kazakhstanskaya Coal Mine, Kazakhstan, M1439, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2077,7 +2077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>M1439.P2</t>
+          <t>M1439.P3</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>ventilation shaft</t>
+          <t>ventilation shaft possibly shared or part of the adjacent Tentekskaya mine</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -2364,12 +2364,12 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
         <is>
-          <t>POINT (72.530966 49.746095)</t>
+          <t>POINT (72.568959 49.77029)</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>M1439.P3</t>
+          <t>M1439.P4</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -2391,11 +2391,11 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>vent</t>
+          <t>shaft</t>
         </is>
       </c>
       <c r="E4" s="15" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>ventilation shaft possibly shared or part of the adjacent Tentekskaya mine</t>
+          <t>possible group of 4 ventilation shafts</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
         <is>
-          <t>POINT (72.568959 49.77029)</t>
+          <t>POINT (72.563863 49.749058)</t>
         </is>
       </c>
     </row>
@@ -2473,21 +2473,21 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>M1439.P4</t>
+          <t>M1439.P6</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>ventilation system</t>
+          <t>degasification system</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>shaft</t>
+          <t>drainage station</t>
         </is>
       </c>
       <c r="E5" s="15" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>possible group of 4 ventilation shafts</t>
+          <t>possible gas drainage station</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
         <is>
-          <t>POINT (72.563863 49.749058)</t>
+          <t>POINT (72.531842 49.747583)</t>
         </is>
       </c>
     </row>
@@ -2565,21 +2565,21 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>M1439.P5</t>
+          <t>M1439.P8</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>degasification system</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>drainage station</t>
+          <t>shaft</t>
         </is>
       </c>
       <c r="E6" s="15" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>drainage system</t>
+          <t>possible shaft</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
@@ -2640,12 +2640,12 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
         <is>
-          <t>POINT (72.518783 49.752169)</t>
+          <t>POINT (72.561943 49.749464)</t>
         </is>
       </c>
     </row>
@@ -2657,21 +2657,21 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>M1439.P6</t>
+          <t>M1439.P9</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>degasification system</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>drainage station</t>
+          <t>shaft</t>
         </is>
       </c>
       <c r="E7" s="15" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>possible gas drainage station</t>
+          <t>possible shaft</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
         <is>
-          <t>POINT (72.531842 49.747583)</t>
+          <t>POINT (72.561532 49.748934)</t>
         </is>
       </c>
     </row>
@@ -2749,21 +2749,21 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>M1439.P7</t>
+          <t>M1439.P10</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>degasification system</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>drainage station</t>
+          <t>shaft</t>
         </is>
       </c>
       <c r="E8" s="15" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>possible gas drainage station</t>
+          <t>possible access shaft</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
         <is>
-          <t>POINT (72.513121 49.735834)</t>
+          <t>POINT (72.540145 49.768693)</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>M1439.P8</t>
+          <t>M1439.P11</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>shaft</t>
+          <t>slope access or production shaft</t>
         </is>
       </c>
       <c r="E9" s="15" t="n">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>possible shaft</t>
+          <t>possible slope or access</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
         <is>
-          <t>POINT (72.561943 49.749464)</t>
+          <t>POINT (72.564754 49.749988)</t>
         </is>
       </c>
     </row>
@@ -2933,21 +2933,21 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>M1439.P9</t>
+          <t>M1439.P12</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>ventilation system</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>shaft</t>
+          <t>vent</t>
         </is>
       </c>
       <c r="E10" s="15" t="n">
-        <v>45047</v>
+        <v>45444</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>possible shaft</t>
+          <t>ventilation shaft</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
         <is>
-          <t>POINT (72.561532 49.748934)</t>
+          <t>POINT (72.531337 49.745407)</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>M1439.P10</t>
+          <t>M1439.P13</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="E11" s="15" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>possible access shaft</t>
+          <t>shaft</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
@@ -3100,286 +3100,10 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
-        <is>
-          <t>POINT (72.540145 49.768693)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>Kazakhstanskaya Coal Mine, Kazakhstan, M1439</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>M1439.P11</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>slope access or production shaft</t>
-        </is>
-      </c>
-      <c r="E12" s="15" t="n">
-        <v>45047</v>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>Identified visually from Google Earth Pro satellite imagery.</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>possible slope or access</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>extracted</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>M1439</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
-        <is>
-          <t>Qarmet JSC [100%]</t>
-        </is>
-      </c>
-      <c r="K12" s="0" t="inlineStr"/>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>Qazaqstan Steel Group LLP</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="inlineStr">
-        <is>
-          <t>https://www.gem.wiki/Kazakhstanskaya_coal_mine</t>
-        </is>
-      </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="inlineStr">
-        <is>
-          <t>Met</t>
-        </is>
-      </c>
-      <c r="P12" s="0" t="inlineStr">
-        <is>
-          <t>Kazakhstanskaya Coal Mine</t>
-        </is>
-      </c>
-      <c r="Q12" s="0" t="inlineStr">
-        <is>
-          <t>Kazakhstan</t>
-        </is>
-      </c>
-      <c r="R12" s="0" t="inlineStr">
-        <is>
-          <t>Dec 26, 2025</t>
-        </is>
-      </c>
-      <c r="S12" s="0" t="inlineStr">
-        <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
-        </is>
-      </c>
-      <c r="T12" s="0" t="inlineStr">
-        <is>
-          <t>POINT (72.564754 49.749988)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>Kazakhstanskaya Coal Mine, Kazakhstan, M1439</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>M1439.P12</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>ventilation system</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>vent</t>
-        </is>
-      </c>
-      <c r="E13" s="15" t="n">
-        <v>45444</v>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>Identified visually from Google Earth Pro satellite imagery.</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t>ventilation shaft</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>extracted</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>M1439</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="inlineStr">
-        <is>
-          <t>Qarmet JSC [100%]</t>
-        </is>
-      </c>
-      <c r="K13" s="0" t="inlineStr"/>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>Qazaqstan Steel Group LLP</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="inlineStr">
-        <is>
-          <t>https://www.gem.wiki/Kazakhstanskaya_coal_mine</t>
-        </is>
-      </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="inlineStr">
-        <is>
-          <t>Met</t>
-        </is>
-      </c>
-      <c r="P13" s="0" t="inlineStr">
-        <is>
-          <t>Kazakhstanskaya Coal Mine</t>
-        </is>
-      </c>
-      <c r="Q13" s="0" t="inlineStr">
-        <is>
-          <t>Kazakhstan</t>
-        </is>
-      </c>
-      <c r="R13" s="0" t="inlineStr">
-        <is>
-          <t>Dec 26, 2025</t>
-        </is>
-      </c>
-      <c r="S13" s="0" t="inlineStr">
-        <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
-        </is>
-      </c>
-      <c r="T13" s="0" t="inlineStr">
-        <is>
-          <t>POINT (72.531337 49.745407)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>Kazakhstanskaya Coal Mine, Kazakhstan, M1439</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>M1439.P13</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>shaft</t>
-        </is>
-      </c>
-      <c r="E14" s="15" t="n">
-        <v>45078</v>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>Identified visually from Google Earth Pro satellite imagery.</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>shaft</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>extracted</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>M1439</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
-        <is>
-          <t>Qarmet JSC [100%]</t>
-        </is>
-      </c>
-      <c r="K14" s="0" t="inlineStr"/>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>Qazaqstan Steel Group LLP</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="inlineStr">
-        <is>
-          <t>https://www.gem.wiki/Kazakhstanskaya_coal_mine</t>
-        </is>
-      </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="inlineStr">
-        <is>
-          <t>Met</t>
-        </is>
-      </c>
-      <c r="P14" s="0" t="inlineStr">
-        <is>
-          <t>Kazakhstanskaya Coal Mine</t>
-        </is>
-      </c>
-      <c r="Q14" s="0" t="inlineStr">
-        <is>
-          <t>Kazakhstan</t>
-        </is>
-      </c>
-      <c r="R14" s="0" t="inlineStr">
-        <is>
-          <t>Dec 26, 2025</t>
-        </is>
-      </c>
-      <c r="S14" s="0" t="inlineStr">
-        <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
-        </is>
-      </c>
-      <c r="T14" s="0" t="inlineStr">
         <is>
           <t>POINT (72.566714 49.738556)</t>
         </is>

--- a/Kazakhstanskaya Coal Mine, Kazakhstan, M1439.xlsx
+++ b/Kazakhstanskaya Coal Mine, Kazakhstan, M1439.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Kazakhstanskaya Coal Mine, Kazakhstan, M1439, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Kazakhstanskaya Coal Mine, Kazakhstan, M1439, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">

--- a/Kazakhstanskaya Coal Mine, Kazakhstan, M1439.xlsx
+++ b/Kazakhstanskaya Coal Mine, Kazakhstan, M1439.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Kazakhstanskaya Coal Mine, Kazakhstan, M1439, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Kazakhstanskaya Coal Mine, Kazakhstan, M1439, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
